--- a/Diff.xlsx
+++ b/Diff.xlsx
@@ -464,13 +464,13 @@
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G1" s="1" t="n"/>
@@ -508,34 +508,27 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
         <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
